--- a/src/public/assets/allotment.xlsx
+++ b/src/public/assets/allotment.xlsx
@@ -397,205 +397,211 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM2"/>
+  <dimension ref="A1:AO2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>EEL2020</v>
+      </c>
+      <c r="B1" t="str">
+        <v>EEL3080</v>
+      </c>
+      <c r="C1" t="str">
+        <v>EEL7150</v>
+      </c>
+      <c r="D1" t="str">
+        <v>EEL3090</v>
+      </c>
+      <c r="E1" t="str">
+        <v>EEL3100</v>
+      </c>
+      <c r="F1" t="str">
+        <v>EEL2050</v>
+      </c>
+      <c r="G1" t="str">
+        <v>SHL7430</v>
+      </c>
+      <c r="H1" t="str">
+        <v>EEL3060</v>
+      </c>
+      <c r="I1" t="str">
+        <v>EEL2040</v>
+      </c>
+      <c r="J1" t="str">
+        <v>EEL7260</v>
+      </c>
+      <c r="K1" t="str">
+        <v>EEL2030</v>
+      </c>
+      <c r="L1" t="str">
+        <v>EEL1000</v>
+      </c>
+      <c r="M1" t="str">
         <v>EEL2010</v>
       </c>
-      <c r="B1" t="str">
+      <c r="N1" t="str">
+        <v>EEL7130</v>
+      </c>
+      <c r="O1" t="str">
+        <v>EEL3070</v>
+      </c>
+      <c r="P1" t="str">
+        <v>csl1011</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>csl1013</v>
+      </c>
+      <c r="R1" t="str">
+        <v>EEL7650</v>
+      </c>
+      <c r="S1" t="str">
+        <v>csl1012</v>
+      </c>
+      <c r="T1" t="str">
+        <v>csl1018</v>
+      </c>
+      <c r="U1" t="str">
+        <v>csl1016</v>
+      </c>
+      <c r="V1" t="str">
+        <v>csl1014</v>
+      </c>
+      <c r="W1" t="str">
+        <v>csl1015</v>
+      </c>
+      <c r="X1" t="str">
         <v>EEL7480</v>
       </c>
-      <c r="C1" t="str">
-        <v>EEL7260</v>
-      </c>
-      <c r="D1" t="str">
-        <v>EEL7650</v>
-      </c>
-      <c r="E1" t="str">
-        <v>EEL7130</v>
-      </c>
-      <c r="F1" t="str">
-        <v>SHL7430</v>
-      </c>
-      <c r="G1" t="str">
-        <v>EEL3070</v>
-      </c>
-      <c r="H1" t="str">
-        <v>csl1015</v>
-      </c>
-      <c r="I1" t="str">
-        <v>csl1016</v>
-      </c>
-      <c r="J1" t="str">
+      <c r="Y1" t="str">
         <v>csl1017</v>
       </c>
-      <c r="K1" t="str">
-        <v>EEL7150</v>
-      </c>
-      <c r="L1" t="str">
-        <v>EEL7520</v>
-      </c>
-      <c r="M1" t="str">
-        <v>csl1012</v>
-      </c>
-      <c r="N1" t="str">
-        <v>EEL2040</v>
-      </c>
-      <c r="O1" t="str">
-        <v>EEL3100</v>
-      </c>
-      <c r="P1" t="str">
-        <v>EEL3090</v>
-      </c>
-      <c r="Q1" t="str">
-        <v>csl1018</v>
-      </c>
-      <c r="R1" t="str">
-        <v>EEL2050</v>
-      </c>
-      <c r="S1" t="str">
-        <v>EEL2030</v>
-      </c>
-      <c r="T1" t="str">
-        <v>csl1013</v>
-      </c>
-      <c r="U1" t="str">
-        <v>EEL3060</v>
-      </c>
-      <c r="V1" t="str">
-        <v>EEL3080</v>
-      </c>
-      <c r="W1" t="str">
+      <c r="Z1" t="str">
         <v>csl1019</v>
       </c>
-      <c r="X1" t="str">
-        <v>csl1014</v>
-      </c>
-      <c r="Y1" t="str">
-        <v>EEL2020</v>
-      </c>
-      <c r="Z1" t="str">
-        <v>csl1011</v>
-      </c>
       <c r="AA1" t="str">
-        <v>EEL1111</v>
+        <v>csl1111</v>
       </c>
       <c r="AB1" t="str">
-        <v>EEL1000</v>
+        <v>B20CS002</v>
       </c>
       <c r="AC1" t="str">
+        <v>B20CS003</v>
+      </c>
+      <c r="AD1" t="str">
         <v>B20CS001</v>
       </c>
-      <c r="AD1" t="str">
-        <v>B20EE099</v>
-      </c>
       <c r="AE1" t="str">
-        <v>B20CS002</v>
+        <v>B20CS004</v>
       </c>
       <c r="AF1" t="str">
-        <v>B20CS019</v>
+        <v>B20CS007</v>
       </c>
       <c r="AG1" t="str">
-        <v>B20CS007</v>
+        <v>B20CS107</v>
       </c>
       <c r="AH1" t="str">
-        <v>B20CS003</v>
+        <v>B20CS008</v>
       </c>
       <c r="AI1" t="str">
         <v>B20CS006</v>
       </c>
       <c r="AJ1" t="str">
-        <v>B20CS004</v>
+        <v>B20CS009</v>
       </c>
       <c r="AK1" t="str">
-        <v>B20CS008</v>
+        <v>B20EE099</v>
       </c>
       <c r="AL1" t="str">
-        <v>B20CS009</v>
+        <v>B20CS097</v>
       </c>
       <c r="AM1" t="str">
-        <v>B20CS111</v>
+        <v>B20CS109</v>
+      </c>
+      <c r="AN1" t="str">
+        <v>B20CS029</v>
+      </c>
+      <c r="AO1" t="str">
+        <v>B20CS110</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>B20CS001,B20CS008</v>
+        <v>B20CS001,B20EE099,B20CS110</v>
       </c>
       <c r="B2" t="str">
-        <v>B20CS007</v>
+        <v>B20CS007,B20EE099,B20CS110</v>
       </c>
       <c r="C2" t="str">
+        <v>B20CS004,B20EE099,B20CS110</v>
+      </c>
+      <c r="D2" t="str">
+        <v>B20CS001,B20CS097</v>
+      </c>
+      <c r="E2" t="str">
+        <v>B20CS003,B20CS097</v>
+      </c>
+      <c r="F2" t="str">
+        <v>B20CS004,B20CS097</v>
+      </c>
+      <c r="G2" t="str">
         <v>B20CS004</v>
       </c>
-      <c r="D2" t="str">
-        <v>B20CS004,B20CS008</v>
-      </c>
-      <c r="E2" t="str">
-        <v>B20CS003</v>
-      </c>
-      <c r="F2" t="str">
-        <v>B20CS004</v>
-      </c>
-      <c r="G2" t="str">
-        <v>B20CS009,B20CS111</v>
-      </c>
       <c r="H2" t="str">
-        <v>B20CS001</v>
+        <v>B20CS003,B20CS109</v>
       </c>
       <c r="I2" t="str">
-        <v>B20CS001</v>
+        <v>B20CS007,B20CS109</v>
       </c>
       <c r="J2" t="str">
-        <v>B20CS019</v>
+        <v>B20CS009</v>
       </c>
       <c r="K2" t="str">
-        <v>B20CS003,B20CS111</v>
+        <v>B20CS003,B20CS109</v>
       </c>
       <c r="L2" t="str">
         <v>B20CS007</v>
       </c>
       <c r="M2" t="str">
-        <v>B20EE099</v>
+        <v>B20CS001,B20CS029</v>
       </c>
       <c r="N2" t="str">
-        <v>B20CS007,B20CS111</v>
+        <v>B20CS002</v>
       </c>
       <c r="O2" t="str">
-        <v>B20CS003</v>
+        <v>B20CS009,B20CS029</v>
       </c>
       <c r="P2" t="str">
         <v>B20CS002</v>
       </c>
       <c r="Q2" t="str">
-        <v>B20EE099</v>
+        <v>B20CS002</v>
       </c>
       <c r="R2" t="str">
-        <v>B20CS009</v>
+        <v>B20CS009,B20CS029</v>
       </c>
       <c r="S2" t="str">
-        <v>B20EE099</v>
+        <v>B20CS107</v>
       </c>
       <c r="T2" t="str">
-        <v>B20CS002</v>
+        <v>B20CS107</v>
       </c>
       <c r="U2" t="str">
-        <v>B20CS009</v>
+        <v>B20CS107</v>
       </c>
       <c r="V2" t="str">
+        <v>B20CS008</v>
+      </c>
+      <c r="W2" t="str">
+        <v>B20CS008</v>
+      </c>
+      <c r="X2" t="str">
         <v>B20CS006</v>
       </c>
-      <c r="W2" t="str">
-        <v>B20CS002</v>
-      </c>
-      <c r="X2" t="str">
-        <v>B20CS019</v>
-      </c>
       <c r="Y2" t="str">
-        <v>B20CS019</v>
+        <v>B20CS008</v>
       </c>
       <c r="Z2" t="str">
         <v>B20CS006</v>
@@ -604,45 +610,51 @@
         <v>B20CS006</v>
       </c>
       <c r="AB2" t="str">
-        <v>B20CS008</v>
+        <v>EEL7130,csl1011,csl1013</v>
       </c>
       <c r="AC2" t="str">
-        <v>EEL2010,csl1015,csl1016</v>
+        <v>EEL3100,EEL3060,EEL2030</v>
       </c>
       <c r="AD2" t="str">
-        <v>csl1012,csl1018,EEL2030</v>
+        <v>EEL2020,EEL3090,EEL2010</v>
       </c>
       <c r="AE2" t="str">
-        <v>EEL3090,csl1013,csl1019</v>
+        <v>EEL7150,EEL2050,SHL7430</v>
       </c>
       <c r="AF2" t="str">
-        <v>csl1017,csl1014,EEL2020</v>
+        <v>EEL3080,EEL2040,EEL1000</v>
       </c>
       <c r="AG2" t="str">
-        <v>EEL7480,EEL7520,EEL2040</v>
+        <v>csl1012,csl1018,csl1016</v>
       </c>
       <c r="AH2" t="str">
-        <v>EEL7130,EEL7150,EEL3100</v>
+        <v>csl1014,csl1015,csl1017</v>
       </c>
       <c r="AI2" t="str">
-        <v>EEL3080,csl1011,EEL1111</v>
+        <v>EEL7480,csl1019,csl1111</v>
       </c>
       <c r="AJ2" t="str">
-        <v>EEL7260,EEL7650,SHL7430</v>
+        <v>EEL7260,EEL3070,EEL7650</v>
       </c>
       <c r="AK2" t="str">
-        <v>EEL1000,EEL2010,EEL7650</v>
+        <v>EEL2020,EEL3080,EEL7150</v>
       </c>
       <c r="AL2" t="str">
-        <v>EEL3070,EEL2050,EEL3060</v>
+        <v>EEL3090,EEL3100,EEL2050</v>
       </c>
       <c r="AM2" t="str">
-        <v>EEL3070,EEL7150,EEL2040</v>
+        <v>EEL3060,EEL2040,EEL2030</v>
+      </c>
+      <c r="AN2" t="str">
+        <v>EEL2010,EEL3070,EEL7650</v>
+      </c>
+      <c r="AO2" t="str">
+        <v>EEL2020,EEL3080,EEL7150</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AM2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AO2"/>
   </ignoredErrors>
 </worksheet>
 </file>